--- a/2025_2026/BoxScores/April.xlsx
+++ b/2025_2026/BoxScores/April.xlsx
@@ -5,19 +5,60 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\Templates\BoxScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2025_2026\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DD6B7-1892-4AE8-A91D-993C74A8EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D062EF2-778D-4428-9C05-CF969044F2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Teams" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
-    <sheet name="Offense (MM-DD-YY)" sheetId="5" r:id="rId4"/>
-    <sheet name="Goalies (DD-MM-YY)" sheetId="4" r:id="rId5"/>
+    <sheet name="Scores (4-1-26)" sheetId="3" r:id="rId2"/>
+    <sheet name="Scores (4-2-26)" sheetId="6" r:id="rId3"/>
+    <sheet name="Scores (4-3-26)" sheetId="9" r:id="rId4"/>
+    <sheet name="Scores (4-4-26)" sheetId="12" r:id="rId5"/>
+    <sheet name="Scores (4-5-26)" sheetId="15" r:id="rId6"/>
+    <sheet name="Scores (4-6-26)" sheetId="18" r:id="rId7"/>
+    <sheet name="Scores (4-7-26)" sheetId="21" r:id="rId8"/>
+    <sheet name="Scores (4-8-26)" sheetId="22" r:id="rId9"/>
+    <sheet name="Scores (4-9-26)" sheetId="23" r:id="rId10"/>
+    <sheet name="Scores (4-11-26)" sheetId="30" r:id="rId11"/>
+    <sheet name="Scores (4-12-26)" sheetId="31" r:id="rId12"/>
+    <sheet name="Scores (4-13-26)" sheetId="32" r:id="rId13"/>
+    <sheet name="Scores (4-14-26)" sheetId="39" r:id="rId14"/>
+    <sheet name="Scores (4-15-26)" sheetId="40" r:id="rId15"/>
+    <sheet name="Scores (4-16-26)" sheetId="41" r:id="rId16"/>
+    <sheet name="Offense (4-1-26)" sheetId="5" r:id="rId17"/>
+    <sheet name="Goalies (4-1-26)" sheetId="4" r:id="rId18"/>
+    <sheet name="Offense (4-2-26)" sheetId="7" r:id="rId19"/>
+    <sheet name="Goalies (4-2-26)" sheetId="8" r:id="rId20"/>
+    <sheet name="Offense (4-3-26)" sheetId="10" r:id="rId21"/>
+    <sheet name="Goalies (4-3-26)" sheetId="11" r:id="rId22"/>
+    <sheet name="Offense (4-4-26)" sheetId="13" r:id="rId23"/>
+    <sheet name="Goalies (4-4-26)" sheetId="14" r:id="rId24"/>
+    <sheet name="Offense (4-5-26)" sheetId="16" r:id="rId25"/>
+    <sheet name="Goalies (4-5-26)" sheetId="17" r:id="rId26"/>
+    <sheet name="Offense (4-6-26)" sheetId="19" r:id="rId27"/>
+    <sheet name="Goalies (4-6-26)" sheetId="20" r:id="rId28"/>
+    <sheet name="Offense (4-7-26)" sheetId="24" r:id="rId29"/>
+    <sheet name="Goalies (4-7-26)" sheetId="25" r:id="rId30"/>
+    <sheet name="Offense (4-8-26)" sheetId="26" r:id="rId31"/>
+    <sheet name="Goalies (4-8-26)" sheetId="27" r:id="rId32"/>
+    <sheet name="Offense (4-9-26)" sheetId="28" r:id="rId33"/>
+    <sheet name="Goalies (4-9-26)" sheetId="29" r:id="rId34"/>
+    <sheet name="Offense (4-11-26)" sheetId="33" r:id="rId35"/>
+    <sheet name="Goalies (4-11-26)" sheetId="34" r:id="rId36"/>
+    <sheet name="Offense (4-12-26)" sheetId="35" r:id="rId37"/>
+    <sheet name="Goalies (4-12-26)" sheetId="36" r:id="rId38"/>
+    <sheet name="Offense (4-13-26)" sheetId="37" r:id="rId39"/>
+    <sheet name="Goalies (4-13-26)" sheetId="38" r:id="rId40"/>
+    <sheet name="Offense (4-14-26)" sheetId="42" r:id="rId41"/>
+    <sheet name="Goalies (4-14-26)" sheetId="43" r:id="rId42"/>
+    <sheet name="Offense (4-15-26)" sheetId="44" r:id="rId43"/>
+    <sheet name="Goalies (4-15-26)" sheetId="45" r:id="rId44"/>
+    <sheet name="Offense (4-16-26)" sheetId="46" r:id="rId45"/>
+    <sheet name="Goalies (4-16-26)" sheetId="47" r:id="rId46"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="101">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -135,24 +176,6 @@
     <t>Anaheim Ducks</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacific </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metropolitan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic </t>
-  </si>
-  <si>
-    <t>Western Conference</t>
-  </si>
-  <si>
-    <t>Eastern Conference</t>
-  </si>
-  <si>
     <t>Goalies</t>
   </si>
   <si>
@@ -177,9 +200,6 @@
     <t>INDEX</t>
   </si>
   <si>
-    <t>October 4th 2024</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -267,17 +287,110 @@
     <t>A</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Utah Mammoth</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>April 1st, 2026</t>
+  </si>
+  <si>
+    <t>April 2nd, 2026</t>
+  </si>
+  <si>
+    <t>April 3rd, 2026</t>
+  </si>
+  <si>
+    <t>April 4th, 2026</t>
+  </si>
+  <si>
+    <t>April 5th, 2026</t>
+  </si>
+  <si>
+    <t>April 6th, 2026</t>
+  </si>
+  <si>
+    <t>April 7th, 2026</t>
+  </si>
+  <si>
+    <t>April 8th, 2026</t>
+  </si>
+  <si>
+    <t>April 9th, 2026</t>
+  </si>
+  <si>
+    <t>April 11th, 2026</t>
+  </si>
+  <si>
+    <t>April 12th, 2026</t>
+  </si>
+  <si>
+    <t>April 13th, 2026</t>
+  </si>
+  <si>
+    <t>April 14th, 2026</t>
+  </si>
+  <si>
+    <t>April 15th, 2026</t>
+  </si>
+  <si>
+    <t>April 16th, 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +427,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,9 +623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -543,9 +659,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,13 +999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D177AD-3B5D-4C42-BF73-A9BA1128D737}">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
@@ -902,470 +1015,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AA15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AA16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="27:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AA17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="34" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="35" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="36" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="37" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="38" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="39" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="40" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="41" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="42" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="43" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="44" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="45" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="46" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="47" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="48" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="49" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="50" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="51" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="52" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Scores (4-1-26)'!A1" display="Scores" xr:uid="{3E76BE72-22DB-4CDE-8FA0-43CA7F1A3285}"/>
+    <hyperlink ref="B3" location="'Scores (4-2-26)'!A1" display="Scores" xr:uid="{F8ADECD1-B2C7-4B61-87A8-51520C3C0E04}"/>
+    <hyperlink ref="B4" location="'Scores (4-3-26)'!A1" display="Scores" xr:uid="{9C55529F-BD6E-4813-89FF-F2A7487F2645}"/>
+    <hyperlink ref="B5" location="'Scores (4-4-26)'!A1" display="Scores" xr:uid="{35F69C9B-D181-4F76-80DE-FBA33093358E}"/>
+    <hyperlink ref="B6" location="'Scores (4-5-26)'!A1" display="Scores" xr:uid="{9F82E41C-11BA-46AB-8262-C551AD90B429}"/>
+    <hyperlink ref="B7" location="'Scores (4-6-26)'!A1" display="Scores" xr:uid="{10616D91-6A3E-4A58-9F40-998D6690C150}"/>
+    <hyperlink ref="B8" location="'Scores (4-7-26)'!A1" display="Scores" xr:uid="{DCF9F61C-001F-46CC-A452-47AA5AE670E0}"/>
+    <hyperlink ref="B9" location="'Scores (4-8-26)'!A1" display="Scores" xr:uid="{37B17886-949F-4E0C-92DE-557691E3F94D}"/>
+    <hyperlink ref="B10" location="'Scores (4-9-26)'!A1" display="Scores" xr:uid="{C0395D18-1653-4B76-ACBA-6D8A91C6585E}"/>
+    <hyperlink ref="B11" location="'Scores (4-11-26)'!A1" display="Scores" xr:uid="{381558C9-C6D7-449A-A365-3032881B2013}"/>
+    <hyperlink ref="B12" location="'Scores (4-12-26)'!A1" display="Scores" xr:uid="{2F3A254D-455E-4F13-84D9-4A765E8D1A18}"/>
+    <hyperlink ref="B13" location="'Scores (4-13-26)'!A1" display="Scores" xr:uid="{405B68FE-B896-476E-81B5-E8F429A04564}"/>
+    <hyperlink ref="B14" location="'Scores (4-14-26)'!A1" display="Scores" xr:uid="{B72A75AF-12AE-4BA6-86CF-8BD2D64652A7}"/>
+    <hyperlink ref="B15" location="'Scores (4-15-26)'!A1" display="Scores" xr:uid="{C0FBCD0B-9CC3-4FDF-9483-DAE6B163A0DD}"/>
+    <hyperlink ref="B16" location="'Scores (4-16-26)'!A1" display="Scores" xr:uid="{320CE893-284D-4C81-8615-A25D90AE34EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0148CC85-F753-4FD2-B9F3-A5962DDFE417}">
-  <dimension ref="A1:O56"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E4E7B2-7D5C-463A-8970-020A85373496}">
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="7"/>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K46" s="7"/>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="7"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="7"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="O56" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,134 +1313,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
+      <c r="A1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>40</v>
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
+      <c r="A15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1513,20 +1498,258 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16" xr:uid="{3918361F-3FB6-40B1-A195-D162D98826A6}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
-    <hyperlink ref="A18" location="'Offense (10-10-23)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
-    <hyperlink ref="A19" location="'Goalies (10-10-23)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{DC93FBBE-6F56-44E9-9681-1DF43074BB8C}"/>
+    <hyperlink ref="A17" location="'Offense (4-9-26)'!A1" display="Offense" xr:uid="{B1682063-EACC-4FFD-BE56-95F23FCF9532}"/>
+    <hyperlink ref="A18" location="'Goalies (4-9-26)'!A1" display="Goalies" xr:uid="{B818E63F-77CC-4559-8468-7AB50E1F5078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D139E7D3-49D6-44E0-B671-13CF34835315}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C16 A3:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB461F04-51E6-408B-A508-A8F94DB372E6}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{472B93B5-BA9B-4D2B-BFAD-FE96A9E4B527}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{9212699D-67C8-479F-A732-1794C140DB43}"/>
+    <hyperlink ref="A18" location="'Offense (4-11-26)'!A1" display="Offense" xr:uid="{A1F68FE9-1ACF-44CE-87ED-19708708F64B}"/>
+    <hyperlink ref="A19" location="'Goalies (4-11-26)'!A1" display="Goalies" xr:uid="{452F4103-90B6-4473-8C29-D129E669EE8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EC8B103-3BF8-434A-966C-A38578C41735}">
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
@@ -1538,12 +1761,822 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8592A6A0-48F7-40FB-929B-430D24F755A5}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{72132594-CF02-4052-9A25-999A17520F31}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{FFA05F3B-4269-4558-8D78-62380804F13D}"/>
+    <hyperlink ref="A9" location="'Offense (4-12-26)'!A1" display="Offense" xr:uid="{43733974-05A3-47BD-92BC-5506C32CC34D}"/>
+    <hyperlink ref="A10" location="'Goalies (4-12-26)'!A1" display="Goalies" xr:uid="{D81D3FD4-D1B1-4E9B-AE0C-AE3F69D8C973}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C899B4C0-F897-4F15-BB8F-919D81F73797}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E33F1D-1943-4C3E-96A6-E7A2F9B17392}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{959487E8-F879-404F-9B5A-04857DE93443}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{66B9EFB2-CD2E-4089-A6CF-CEDAE0A4616C}"/>
+    <hyperlink ref="A13" location="'Offense (4-13-26)'!A1" display="Offense" xr:uid="{FA35898A-C804-40A1-9FB2-4BE1F45695F3}"/>
+    <hyperlink ref="A14" location="'Goalies (4-13-26)'!A1" display="Goalies" xr:uid="{8AFDA154-CAEC-4B73-91A7-D34B0A04F3D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{799DDF70-615F-46CB-9A0F-B5BE1E267E0E}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C968A61B-CE8B-46D2-B078-37C727AFDA9B}">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{F60077C0-01D9-41E3-BA5B-A708AA2F42F8}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{5677741E-130F-401F-A26A-72801216CB86}"/>
+    <hyperlink ref="A12" location="'Offense (4-14-26)'!A1" display="Offense" xr:uid="{0E5D9F4F-518E-4036-AAB3-BBF030FA8220}"/>
+    <hyperlink ref="A13" location="'Goalies (4-14-26)'!A1" display="Goalies" xr:uid="{CC9EE65C-1086-4C4D-9E66-B90747422AC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8E103FC-7210-44D1-BCC4-7639BE416B66}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95039FDF-FBD2-4B78-9401-2821E512FD76}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{3EC982F1-3597-46BA-826A-83FB02BCD21F}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{EFD4EC1D-F0FC-4893-91F8-0C2B15D2FB34}"/>
+    <hyperlink ref="A9" location="'Offense (4-15-26)'!A1" display="Offense" xr:uid="{7E057544-7AE4-4F3A-A85D-28206EABF44E}"/>
+    <hyperlink ref="A10" location="'Goalies (4-15-26)'!A1" display="Goalies" xr:uid="{4E295C15-45D4-4FE1-8399-C6FE10A43DFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5F67E69-415C-4AD7-9F6F-19D4C8FB8E56}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB38A9-2442-4FF5-B83C-834F0F939302}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{5AFC0768-0235-4963-A259-4E597E0EBE55}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{CFEDAA11-141D-426F-98EF-1A81D6458E84}"/>
+    <hyperlink ref="A9" location="'Offense (4-16-26)'!A1" display="Offense" xr:uid="{B00A0181-6E4D-4F3B-AF0B-9B518F4F5DDB}"/>
+    <hyperlink ref="A10" location="'Goalies (4-16-26)'!A1" display="Goalies" xr:uid="{59044A29-4480-46CC-A818-D9D159DCAE94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3CAB84A-8A00-4E76-8FDC-1724564316FE}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9F52C-4A3A-44E0-BBDC-950685570BE6}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,86 +2585,3000 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>62</v>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{E6243207-8E81-4D22-A737-3DA59F72993E}"/>
+    <hyperlink ref="U1" location="'Scores (4-1-26)'!A1" display="HOME" xr:uid="{2DFCF78D-6760-4F30-92A0-8CA6CFFC2CBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-1-26)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195BDE1B-1649-44C1-86DD-A2FC94C6AA07}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-2-26)'!A1" display="HOME" xr:uid="{DC63F500-A284-478C-8667-468371156D85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
+    <hyperlink ref="A6" location="'Offense (4-1-26)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
+    <hyperlink ref="A7" location="'Goalies (4-1-26)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA26F0E-66AE-4331-8032-48AF275448F0}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-2-26)'!A1" display="HOME" xr:uid="{B9853725-91FC-4000-BB59-8993D0A6AE62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD77678-3849-43C6-BD4F-F030EAB9DB8D}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-3-26)'!A1" display="HOME" xr:uid="{C6E2B5BA-E45E-4E88-82D4-EC364D8ED7E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32790435-2832-4192-9942-5145DC7FD707}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-3-26)'!A1" display="HOME" xr:uid="{589EA98B-795B-4E59-A792-CC8046B3D207}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B4D5B-C77B-46D9-AA49-9AFB74BAF4B8}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-4-26)'!A1" display="HOME" xr:uid="{5A3A36CF-0DAB-4134-847B-7F16F2E34307}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3463D68F-86F6-419D-828C-68D489111DA6}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-4-26)'!A1" display="HOME" xr:uid="{0ADDD059-609A-4F5F-851B-643561BC8F92}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E43ED3-499C-44FB-9166-4C9066386C89}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-5-26)'!A1" display="HOME" xr:uid="{79C01FA5-7422-4764-AB2C-68CD856D1810}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F3F7C-FE50-4545-A630-FADA17841311}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-5-26)'!A1" display="HOME" xr:uid="{D828258C-8AC8-437B-88AC-7CA2C487402E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F71188E-136E-43FD-BA07-9205D97E69BE}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-6-26)'!A1" display="HOME" xr:uid="{525ED649-B227-4155-88C4-ECC426802378}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DE40F0-36D4-4F2C-ACBE-16275A34CED0}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-6-26)'!A1" display="HOME" xr:uid="{EB7360CE-8A66-4DB6-B11B-B8D3A91D511D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF745B-1375-416E-862A-AE0F3E88AE34}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-7-26)'!A1" display="HOME" xr:uid="{D54B38B2-535D-419B-B001-BFC1EA77F7DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EA0018-6DC6-4DA8-B262-6E56B5DADF8A}">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16" xr:uid="{ECC0DEA4-DD86-4E61-8BD3-9CA1B04A0F40}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{B9399005-CF60-40D5-A786-32F59D525B57}"/>
+    <hyperlink ref="A17" location="'Offense (4-2-26)'!A1" display="Offense" xr:uid="{B94063AD-2F9B-4E96-9289-3C9654CEBADE}"/>
+    <hyperlink ref="A18" location="'Goalies (4-2-26)'!A1" display="Goalies" xr:uid="{28454041-0061-457B-8B27-F4D27EE9E1DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6B3F786-2DB9-4197-B560-938A88E8C868}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C16 A3:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F410A880-5137-4CC8-9B2E-E061F241A2AC}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-7-26)'!A1" display="HOME" xr:uid="{3374E363-8C72-4908-AB8D-DB3DA8131929}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76062DA9-9965-44B9-953A-12224EF7071F}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-8-26)'!A1" display="HOME" xr:uid="{9EA77567-027B-4490-B74A-F1F6297A1DFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEE29FA-C8EF-4A7D-8D52-EA5ADF31ED33}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-8-26)'!A1" display="HOME" xr:uid="{F2CE3836-991F-4203-A1F8-977C0A1F0BBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387469F1-2440-4F9A-A088-33BE42FBC478}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-9-26)'!A1" display="HOME" xr:uid="{461F4CBC-D0AF-4212-BFBB-046EFD386F75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E04A25-2709-4F65-BAEF-534E1787CA76}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-9-26)'!A1" display="HOME" xr:uid="{1C67841C-806E-4A36-B9F9-F9A175225912}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462D3988-E12C-494B-80E2-A64B91BC2DD0}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-11-26)'!A1" display="HOME" xr:uid="{A9795DAF-E35C-4852-9BBD-A17F21D479CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F1C53-B2AB-4A30-A631-88A7A0B66948}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-11-26)'!A1" display="HOME" xr:uid="{5DCD875D-22BD-42BF-AF53-3674C802BD2C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D5D9B9-396C-43FE-A27E-FD1BA5B2358B}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-12-26)'!A1" display="HOME" xr:uid="{001CDC7C-F1E5-4401-B9DB-A76246637B89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03B3B4-E205-4F5D-8CCA-EABDC624D1E6}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-12-26)'!A1" display="HOME" xr:uid="{72A3C321-FC57-4E56-BABA-FE2E2CEB5D7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477E4E65-3BD4-4A28-A2B8-7BD018224B84}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-13-26)'!A1" display="HOME" xr:uid="{CDCBDBCA-7F81-46EC-920D-D3ADB355CA55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A36B8C1-6DBA-4573-9405-79523484B1EB}">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{70A1F397-EE16-485F-8406-8F30B764E889}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{19BC5DE3-8C18-401F-90E9-CCA9C6EE2945}"/>
+    <hyperlink ref="A5" location="'Offense (4-3-26)'!A1" display="Offense" xr:uid="{12AAF0B0-E377-4FD3-A8D5-73F8FCCBCA85}"/>
+    <hyperlink ref="A6" location="'Goalies (4-3-26)'!A1" display="Goalies" xr:uid="{41C15125-9742-4B34-85E4-18AC6B4BCC0B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C5DFA42-E8D0-4293-8750-478BB2A1F580}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C4 A3:A4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68155A85-75F4-4FE4-ADA2-100162E5D006}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-13-26)'!A1" display="HOME" xr:uid="{639CB675-9072-4002-86AC-87CC3799269D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E736E8-9500-4A28-8100-35AFD2DF360C}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-14-26)'!A1" display="HOME" xr:uid="{001346C3-9F3E-4585-BB08-01EC835F4019}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB30B0C-BDBC-4AC4-9045-8CC373FBB598}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-14-26)'!A1" display="HOME" xr:uid="{A381EB75-6C39-4F8D-9C0F-D0C59289C453}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BDE245-BD3A-49DE-8211-9BE8BC374399}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-15-26)'!A1" display="HOME" xr:uid="{4DB2096B-DEDA-472F-B93C-940A27C2D0FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D0210F-AF70-443F-BC9B-33C0EB5454CB}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (4-15-26)'!A1" display="HOME" xr:uid="{9D033055-B77F-4987-86B6-F962BCD7AA31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC540391-9051-48A0-B164-980FEBF387F0}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (4-16-26)'!A1" display="HOME" xr:uid="{BAEA8924-D4ED-4BCD-946F-4E5898597A20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E56AC2A-5410-41CB-A6B8-FD7AED1E7B0C}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1648,68 +5595,908 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="16"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="16"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="16"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="16"/>
+      <c r="K7" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+    <hyperlink ref="M1" location="'Scores (4-16-26)'!A1" display="HOME" xr:uid="{E171A774-057F-4836-8D7D-4D4F3BBE4AEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945C39E-F459-420F-8FCC-3856CCBD0DEE}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{DCB5F7B6-3879-4D5E-92F7-663F8C45A3CC}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{A476E2D1-559C-45A6-BB5F-331770DACE6F}"/>
+    <hyperlink ref="A18" location="'Offense (4-4-26)'!A1" display="Offense" xr:uid="{72624853-D6EF-4388-994D-72779C409E03}"/>
+    <hyperlink ref="A19" location="'Goalies (4-4-26)'!A1" display="Goalies" xr:uid="{8B0EFBA8-7B08-458C-9232-8E67BA0E36F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80812B04-3856-4172-AA84-0BCB072157E8}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E12DC0-5000-40C6-A7EA-BE515B022051}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{39597882-6F43-4E37-841C-A29E0073BD53}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{4C28361F-5CF6-4FC5-8AEA-D73F0814310E}"/>
+    <hyperlink ref="A10" location="'Offense (4-5-26)'!A1" display="Offense" xr:uid="{E05C50C9-EC87-407E-B09B-5971116293BD}"/>
+    <hyperlink ref="A11" location="'Goalies (4-5-26)'!A1" display="Goalies" xr:uid="{82F1D870-5D8A-461B-850B-D5AAF2FAE290}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37657572-E9D8-4630-AA05-090092BEF3C6}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1A135B-59A4-44FB-9B5D-BBA6776B7A23}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{5AF22115-14B2-41D6-BFB6-DA47C0AC3E82}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{10C262EE-B8ED-4345-9D61-5B164632C4B9}"/>
+    <hyperlink ref="A7" location="'Offense (4-6-26)'!A1" display="Offense" xr:uid="{E6E6AB5B-55EF-47D7-8B18-A85C6E530B2D}"/>
+    <hyperlink ref="A8" location="'Goalies (4-6-26)'!A1" display="Goalies" xr:uid="{F7A2D412-66E8-4953-8872-B396C8A8ED31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81C89226-D866-42E4-A7EB-B31A8234C969}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C6 A3:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368EC8A7-E454-4A58-8B73-50361E7B794B}">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13" xr:uid="{99C9503A-2F1A-4E1E-96DD-D0D407726BD3}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{E0457A61-775D-4DE5-A17A-FCF28ED339B1}"/>
+    <hyperlink ref="A14" location="'Goalies (4-7-26)'!A1" display="Offense" xr:uid="{CEF27BBB-EC1C-49E3-B85C-EDB67DFE3B98}"/>
+    <hyperlink ref="A15" location="'Goalies (4-7-26)'!A1" display="Goalies" xr:uid="{4FC6CF3F-EEEB-48CF-9CC9-4A41E6384F65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D1AE972-C94A-4EC6-B5D0-86459F059CEC}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C13 A3:A13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D54AB77-EC3A-4E3A-ADAD-C70F081E47AB}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{A4292728-D7B7-4207-AF03-B1028D9BA64B}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{FA0E3DBC-4C9C-4521-BFEB-1D2BCB963485}"/>
+    <hyperlink ref="A6" location="'Offense (4-8-26)'!A1" display="Offense" xr:uid="{1851E405-5A8B-41D8-A817-7C848FFC8701}"/>
+    <hyperlink ref="A7" location="'Goalies (4-8-26)'!A1" display="Goalies" xr:uid="{ED23A774-49E3-419D-B8D6-5D882202E129}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47AEBB0F-89AB-48A2-91B3-57C094D14AB9}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>